--- a/Package16.xlsx
+++ b/Package16.xlsx
@@ -692,7 +692,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
